--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3990473.110459258</v>
+        <v>3986168.77064939</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>219.4450108596164</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032233</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2792495146816145</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="3">
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.875953774682953</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527771</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>135.3771145452296</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,19 +828,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>59.4872978265625</v>
+        <v>81.3654952502191</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>219.4450108596165</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,58 +907,58 @@
         <v>263.7138800015062</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015062</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>212.568965117905</v>
+      </c>
+      <c r="W5" t="n">
         <v>263.7138800015062</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>160.7004989030065</v>
+        <v>88.05077948953165</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>2.214688090590434</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>84.86470642850124</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>83.03844342452658</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>297.278464929734</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83909691614508</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115242</v>
+        <v>20.24979976115243</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256411</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>224.0328052098995</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>37.4229818496311</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>23.91773138700864</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881284</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.41782514684017</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797035</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>137.4337101450034</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>116.6320338128964</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>47.49734780285714</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695483</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.13809394730832</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>6.600826611594939</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T32" t="n">
         <v>199.022230457616</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701348</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.731100678468</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560535</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>74.56474874233423</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3319,13 +3319,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>94.05355358057939</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>177.9413471369465</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>83.70251495695523</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701348</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>100.1755269486888</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.3840804899463</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C2" t="n">
-        <v>307.3840804899463</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>300.438579740743</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356494</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411523</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411523</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>574.0438072739744</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>574.0438072739744</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>573.7617370571243</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.3840804899463</v>
+        <v>788.4778634388467</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>354.787594686703</v>
+        <v>198.4551434940586</v>
       </c>
       <c r="C3" t="n">
-        <v>180.334565405576</v>
+        <v>24.00211421293156</v>
       </c>
       <c r="D3" t="n">
-        <v>180.334565405576</v>
+        <v>24.00211421293156</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>24.00211421293156</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957456</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298711</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263948</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110289997</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557294</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212814</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166541</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166541</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>659.7474918534676</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>659.7474918534676</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>523.0029317067711</v>
+        <v>782.2822794846134</v>
       </c>
       <c r="X3" t="n">
-        <v>523.0029317067711</v>
+        <v>574.4307792790805</v>
       </c>
       <c r="Y3" t="n">
-        <v>523.0029317067711</v>
+        <v>366.6704805141266</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>563.0088271968607</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C4" t="n">
-        <v>563.0088271968607</v>
+        <v>885.9193370781179</v>
       </c>
       <c r="D4" t="n">
-        <v>412.8921877845249</v>
+        <v>735.8026976657821</v>
       </c>
       <c r="E4" t="n">
-        <v>264.9790942021318</v>
+        <v>587.889604083389</v>
       </c>
       <c r="F4" t="n">
-        <v>264.9790942021318</v>
+        <v>440.9996565854786</v>
       </c>
       <c r="G4" t="n">
-        <v>96.40973355713527</v>
+        <v>272.4302959404821</v>
       </c>
       <c r="H4" t="n">
-        <v>96.40973355713527</v>
+        <v>118.5089228739601</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434486</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640386</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>829.3864837640386</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>829.3864837640386</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>563.0088271968607</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>563.0088271968607</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y4" t="n">
-        <v>563.0088271968607</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>833.193892875099</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="C5" t="n">
-        <v>833.193892875099</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>833.193892875099</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>566.8162363079209</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>300.4385797407429</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672985</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
         <v>21.0971104001205</v>
@@ -4573,16 +4573,16 @@
         <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4603,16 +4603,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571245</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.46256898749988</v>
+        <v>354.787594686703</v>
       </c>
       <c r="C6" t="n">
-        <v>65.46256898749988</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D6" t="n">
-        <v>65.46256898749988</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
         <v>21.0971104001205</v>
@@ -4649,49 +4649,49 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166546</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>691.0742594480922</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>462.9384134849057</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>227.786305253163</v>
+        <v>819.7034117742821</v>
       </c>
       <c r="W6" t="n">
-        <v>65.46256898749988</v>
+        <v>730.7632304717249</v>
       </c>
       <c r="X6" t="n">
-        <v>65.46256898749988</v>
+        <v>730.7632304717249</v>
       </c>
       <c r="Y6" t="n">
-        <v>65.46256898749988</v>
+        <v>523.0029317067711</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>353.1708304446448</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>184.2346475167379</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>184.2346475167379</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434482</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
         <v>36.32155393434482</v>
@@ -4728,19 +4728,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>659.6853352735297</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>659.6853352735297</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="W7" t="n">
-        <v>659.6853352735297</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="X7" t="n">
-        <v>573.963409588175</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="Y7" t="n">
-        <v>353.1708304446448</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>832.1286765711425</v>
+        <v>1659.090843722199</v>
       </c>
       <c r="C8" t="n">
-        <v>832.1286765711425</v>
+        <v>1290.128326781788</v>
       </c>
       <c r="D8" t="n">
-        <v>473.8629779643919</v>
+        <v>931.8626281750373</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8629779643919</v>
+        <v>546.074375576793</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9174772151885</v>
+        <v>135.0884707871855</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685563</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685563</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685563</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467171</v>
+        <v>187.3702251467168</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607419</v>
+        <v>442.1757437607416</v>
       </c>
       <c r="L8" t="n">
-        <v>795.186282904592</v>
+        <v>795.1862829045917</v>
       </c>
       <c r="M8" t="n">
         <v>1219.647962995225</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209583</v>
+        <v>1655.591685209582</v>
       </c>
       <c r="O8" t="n">
         <v>2053.905718940594</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550196</v>
+        <v>2359.356530550195</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661162</v>
+        <v>2540.564622661161</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762134</v>
+        <v>2435.830015762133</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.077931858407</v>
+        <v>2435.830015762133</v>
       </c>
       <c r="U8" t="n">
-        <v>2227.077931858407</v>
+        <v>2435.830015762133</v>
       </c>
       <c r="V8" t="n">
-        <v>1896.015044514836</v>
+        <v>2435.830015762133</v>
       </c>
       <c r="W8" t="n">
-        <v>1595.733766808034</v>
+        <v>2435.830015762133</v>
       </c>
       <c r="X8" t="n">
-        <v>1222.268008546954</v>
+        <v>2435.830015762133</v>
       </c>
       <c r="Y8" t="n">
-        <v>832.1286765711425</v>
+        <v>2045.690683786321</v>
       </c>
     </row>
     <row r="9">
@@ -4880,40 +4880,40 @@
         <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685563</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="J9" t="n">
-        <v>167.3422431396293</v>
+        <v>238.3188829507233</v>
       </c>
       <c r="K9" t="n">
-        <v>613.7598241331812</v>
+        <v>506.4581980381341</v>
       </c>
       <c r="L9" t="n">
-        <v>908.2958075666622</v>
+        <v>800.994181471615</v>
       </c>
       <c r="M9" t="n">
-        <v>1271.362276040963</v>
+        <v>1164.060649945916</v>
       </c>
       <c r="N9" t="n">
-        <v>1658.446678513532</v>
+        <v>1551.145052418485</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.333488500921</v>
+        <v>1883.031862405874</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930545</v>
+        <v>2445.345361789035</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251696</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685345</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520714847062</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>305.8310225827537</v>
+        <v>665.0671186274017</v>
       </c>
       <c r="C10" t="n">
-        <v>305.8310225827537</v>
+        <v>496.1309356994948</v>
       </c>
       <c r="D10" t="n">
-        <v>305.8310225827537</v>
+        <v>346.0142962871591</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8310225827537</v>
+        <v>198.101202704766</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8310225827537</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8310225827537</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380138</v>
+        <v>76.63468308380132</v>
       </c>
       <c r="K10" t="n">
         <v>248.2500215676565</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368916</v>
+        <v>523.3850043368914</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904029</v>
+        <v>823.8653899904027</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
         <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412619</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634453</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="T10" t="n">
-        <v>1298.714810867149</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="U10" t="n">
-        <v>1298.714810867149</v>
+        <v>1611.609820844019</v>
       </c>
       <c r="V10" t="n">
-        <v>1044.030322661262</v>
+        <v>1356.925332638132</v>
       </c>
       <c r="W10" t="n">
-        <v>754.6131526243012</v>
+        <v>1067.508162601172</v>
       </c>
       <c r="X10" t="n">
-        <v>526.6236017262838</v>
+        <v>1067.508162601172</v>
       </c>
       <c r="Y10" t="n">
-        <v>305.8310225827537</v>
+        <v>846.7155834576414</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,46 +5029,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2149.810879820877</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2149.810879820877</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.7519863413023</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,28 +5281,28 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1089.575996120531</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>920.6398131926237</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>770.5231737802879</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1720.006590992318</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1271.22446095077</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>2877.307316025035</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3474.685803651586</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>4102.283767206193</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2977.325134535463</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2977.325134535463</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2827.208495123128</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2679.295401540734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3607.75572940725</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3379.766178509233</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3158.973599365703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,25 +6071,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>996.5276398439756</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>827.5914569160688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1398.968683817745</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1178.176104674215</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6429,7 +6429,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,37 +6451,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852254</v>
@@ -6490,13 +6490,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913445</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2876.560776129204</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3473.939263755756</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>4101.537227310362</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4653.44695754965</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4653.44695754965</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>267.6802639609656</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>267.6802639609656</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>100.4841646758455</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797186</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,28 +6694,28 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6742,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.1865537761979</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>781.250370848291</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D34" t="n">
-        <v>631.1337314359553</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>483.2206378535622</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>336.3306903556518</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>169.1345910705317</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761979</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7140,7 +7140,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7490,28 +7490,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1522.21291626627</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2497.745796000625</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1460.05435957553</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7675,25 +7675,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1030.918378293891</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1433.359422267661</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1212.566843124131</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127281</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.39745977364713</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>84.38618054172912</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348516</v>
+        <v>20.98618304348518</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.22910392194107</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>9.00025250156574</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>28.78901421003481</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>101.1181252153552</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>133.693886234629</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>133.693886234629</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>65.72996410388966</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>54.56191943763297</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.6433062151483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>67.07129414993906</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>630991.2213488935</v>
+        <v>630991.2213488934</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>615728.9971727141</v>
+        <v>615728.997172714</v>
       </c>
     </row>
     <row r="8">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="G2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="I2" t="n">
-        <v>807146.5996900059</v>
-      </c>
       <c r="J2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="L2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="M2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="N2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900062</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911927</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>3.10570385408937e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580783</v>
+        <v>390680.007658078</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606937</v>
+        <v>507909.2320606944</v>
       </c>
       <c r="F3" t="n">
-        <v>3.552713678800501e-11</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101763</v>
+        <v>95270.2377910175</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132717.9756954693</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251227.3656190199</v>
+        <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
         <v>251227.3656190198</v>
@@ -26429,28 +26429,28 @@
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.0322517936</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
@@ -26459,7 +26459,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.0322517936</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
         <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567893</v>
+        <v>92902.8675756789</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-173321.3795501953</v>
+        <v>-173321.3795501961</v>
       </c>
       <c r="C6" t="n">
-        <v>506766.6010409968</v>
+        <v>506766.6010409973</v>
       </c>
       <c r="D6" t="n">
-        <v>196993.6428804142</v>
+        <v>196993.6428804141</v>
       </c>
       <c r="E6" t="n">
-        <v>186947.8055536117</v>
+        <v>186600.426299254</v>
       </c>
       <c r="F6" t="n">
-        <v>694857.0376143055</v>
+        <v>694509.6583599484</v>
       </c>
       <c r="G6" t="n">
-        <v>694857.037614305</v>
+        <v>694509.6583599489</v>
       </c>
       <c r="H6" t="n">
-        <v>694857.0376143054</v>
+        <v>694509.6583599485</v>
       </c>
       <c r="I6" t="n">
-        <v>694857.0376143054</v>
+        <v>694509.6583599484</v>
       </c>
       <c r="J6" t="n">
-        <v>625857.8831951913</v>
+        <v>625510.5039408345</v>
       </c>
       <c r="K6" t="n">
-        <v>694857.0376143055</v>
+        <v>694509.6583599485</v>
       </c>
       <c r="L6" t="n">
-        <v>599586.7998232879</v>
+        <v>599239.420568931</v>
       </c>
       <c r="M6" t="n">
-        <v>562139.0619188363</v>
+        <v>561791.6826644794</v>
       </c>
       <c r="N6" t="n">
-        <v>694857.0376143055</v>
+        <v>694509.6583599484</v>
       </c>
       <c r="O6" t="n">
-        <v>694857.0376143055</v>
+        <v>694509.6583599487</v>
       </c>
       <c r="P6" t="n">
-        <v>694857.0376143053</v>
+        <v>694509.6583599483</v>
       </c>
     </row>
   </sheetData>
@@ -26709,25 +26709,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.996581271752635e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>7.039426512964665e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627823</v>
+        <v>933.7024595627821</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856953</v>
+        <v>640.140690085695</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.440892098500626e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26937,10 +26937,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.039426512964665e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.647445793304</v>
+        <v>319.6474457933037</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788914</v>
+        <v>434.2730407788919</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841891</v>
+        <v>376.4268100841888</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139531</v>
+        <v>532.5675980139536</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841894</v>
+        <v>376.4268100841888</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139531</v>
+        <v>532.5675980139538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.440892098500626e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841891</v>
+        <v>376.4268100841888</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139531</v>
+        <v>532.5675980139536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917687</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>162.4853592126454</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27432,22 +27432,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862882</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.4518511637874</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545475</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27466,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>142.1932586187009</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>116.31786861569</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>62.66327569824605</v>
+        <v>40.78507827458944</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508492</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>163.288830803864</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,13 +27627,13 @@
         <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776178</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27675,10 +27675,10 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>115.1832933522299</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27715,7 +27715,7 @@
         <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>90.99448425791314</v>
+        <v>163.644203671388</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27830,16 +27830,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117128</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>249.9229552332376</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>140.8449489605359</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>328.5107163637229</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465045</v>
+        <v>65.76608425465048</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
         <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>51.962503787679</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164532778</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.776449164533403</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>183.3285066607077</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>262.3094583832957</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.477821370612594e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>1.028473857802275e-12</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="33">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>7.039426512964665e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>7.039426512964665e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>7.039426512964665e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>7.039426512964665e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>7.039426512964665e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>7.039426512964665e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>1.200817223434569e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>7.039426512964665e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>7.039426512964665e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>7.039426512964665e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>7.039426512964665e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>7.039426512964665e-14</v>
       </c>
     </row>
     <row r="45">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350877</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582785</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885554</v>
+        <v>3.753577726885553</v>
       </c>
       <c r="H8" t="n">
         <v>38.44132789546669</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157554</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972531</v>
+        <v>318.580217597253</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763187</v>
+        <v>477.4691627763186</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354926</v>
+        <v>592.3427171354924</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359935</v>
+        <v>659.0954050359934</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525072</v>
+        <v>669.7602577525071</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307889</v>
+        <v>632.4356192307888</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983017</v>
+        <v>539.7691690983016</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542127</v>
+        <v>405.3441667542126</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864749</v>
+        <v>235.7856768864748</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140465</v>
+        <v>85.53465245140464</v>
       </c>
       <c r="T8" t="n">
         <v>16.43128649944152</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508443</v>
+        <v>0.3002862181508442</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436928</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035139</v>
+        <v>19.39634732035138</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026266</v>
+        <v>69.14683309026265</v>
       </c>
       <c r="J9" t="n">
         <v>189.7441951079424</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502166</v>
+        <v>324.3030514502165</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571278</v>
+        <v>436.0654741571277</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617163</v>
+        <v>508.8678404617162</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152211</v>
+        <v>522.3360580152209</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519081</v>
+        <v>477.835446451908</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947587</v>
+        <v>383.5050724947586</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.36298474637</v>
+        <v>256.3629847463699</v>
       </c>
       <c r="R9" t="n">
         <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366397</v>
+        <v>37.30405581366396</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133931</v>
+        <v>8.095024154133929</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321277065419032</v>
@@ -31676,19 +31676,19 @@
         <v>1.683725746752558</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840002</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415877</v>
+        <v>50.63422518415875</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
         <v>195.6183185772517</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490122</v>
+        <v>250.3240987490121</v>
       </c>
       <c r="M10" t="n">
         <v>263.9316641023123</v>
@@ -31697,7 +31697,7 @@
         <v>257.6559590462348</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046253</v>
+        <v>237.9869810046252</v>
       </c>
       <c r="P10" t="n">
         <v>203.6389757708729</v>
@@ -31706,16 +31706,16 @@
         <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307409</v>
+        <v>75.70643221307408</v>
       </c>
       <c r="S10" t="n">
         <v>29.34274778658775</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942746</v>
+        <v>7.194100917942745</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650327</v>
+        <v>0.09183958618650326</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>305.6802133385886</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551096</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>424.0909547148526</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>453.4978307576753</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,16 +32575,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>699.0496615458086</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>163.5723821283056</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>140.7358547888803</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33672,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34210,7 +34210,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.8462560123214</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>653.3850396373771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763038</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250137</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649633</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496797</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659563</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705668</v>
+        <v>137.5343130705667</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313381</v>
+        <v>257.379311731338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655054</v>
+        <v>356.5763021655052</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087208</v>
+        <v>428.7491718087207</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559163</v>
+        <v>440.3471941559162</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091022</v>
+        <v>402.337407809102</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430322</v>
+        <v>308.5361733430321</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797632</v>
+        <v>183.0384768797631</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234278</v>
+        <v>20.20013907234272</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.3040282149229</v>
+        <v>188.9976037816845</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884362</v>
+        <v>270.8477930175866</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772536</v>
+        <v>297.5110943772535</v>
       </c>
       <c r="M9" t="n">
-        <v>366.733806539698</v>
+        <v>366.7338065396979</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318878</v>
+        <v>390.9943459318877</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074636</v>
+        <v>335.2392020074635</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804284</v>
+        <v>567.9934337203656</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961976</v>
+        <v>116.3812106603484</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873308</v>
+        <v>25.68023017873305</v>
       </c>
       <c r="K10" t="n">
         <v>173.3488267513688</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093282</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641529</v>
+        <v>303.5155410641528</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254633</v>
       </c>
       <c r="O10" t="n">
-        <v>262.572108918665</v>
+        <v>262.5721089186649</v>
       </c>
       <c r="P10" t="n">
         <v>200.9175350357664</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228576</v>
+        <v>54.8270281422857</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7058059242583</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075059</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>281.4947102704082</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>314.9434509778011</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>556.4534171013642</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>25.73094315394658</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7540807028587982</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37858,7 +37858,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>18.86448192629984</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>510.7887951929326</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3986168.77064939</v>
+        <v>3987929.300952175</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015062</v>
+        <v>161.2522220925136</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>219.4450108596164</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015062</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015058</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.875953774682953</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>2.875953774681486</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -834,13 +834,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>126.6692801601479</v>
       </c>
       <c r="I4" t="n">
-        <v>81.3654952502191</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,10 +913,10 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>97.26234557100798</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>212.568965117905</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>88.05077948953165</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>28.33708868093388</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2.214688090590434</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>2.214688090589984</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>12.59924512334997</v>
       </c>
       <c r="G8" t="n">
-        <v>83.03844342452658</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465011</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>92.83909691614502</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115243</v>
+        <v>18.47335059663023</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052098995</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>23.91773138701242</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>23.91773138700864</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>123.7971820797035</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,13 +1903,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>127.8153769208893</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>71.79687029691043</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678468</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>24.83266606353065</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695393</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.1002068716687</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716687</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="D2" t="n">
-        <v>522.1002068716687</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="E2" t="n">
-        <v>300.438579740743</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.2826908791755</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052536</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.51749475159</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030597</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991306</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358402</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601761</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411512</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>586.73644578228</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>586.73644578228</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>586.73644578228</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>586.73644578228</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388467</v>
+        <v>320.3587892151024</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198.4551434940586</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C3" t="n">
-        <v>24.00211421293156</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="D3" t="n">
-        <v>24.00211421293156</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="E3" t="n">
-        <v>24.00211421293156</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699335</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.87400723023</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267537</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293586</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560883</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789492</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212813</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212813</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212813</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212813</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>1033.614632400004</v>
       </c>
       <c r="W3" t="n">
-        <v>782.2822794846134</v>
+        <v>779.3772756718022</v>
       </c>
       <c r="X3" t="n">
-        <v>574.4307792790805</v>
+        <v>571.5257754662694</v>
       </c>
       <c r="Y3" t="n">
-        <v>366.6704805141266</v>
+        <v>363.7654767013155</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="C4" t="n">
-        <v>885.9193370781179</v>
+        <v>885.9193370781163</v>
       </c>
       <c r="D4" t="n">
-        <v>735.8026976657821</v>
+        <v>735.8026976657806</v>
       </c>
       <c r="E4" t="n">
-        <v>587.889604083389</v>
+        <v>587.8896040833874</v>
       </c>
       <c r="F4" t="n">
-        <v>440.9996565854786</v>
+        <v>440.9996565854771</v>
       </c>
       <c r="G4" t="n">
-        <v>272.4302959404821</v>
+        <v>272.4302959404805</v>
       </c>
       <c r="H4" t="n">
-        <v>118.5089228739601</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287936</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726550998</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375323</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227033</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075528</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816801</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="X4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="Y4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>573.7617370571245</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>307.3840804899464</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899464</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>248.7770495552873</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>235.8132367818428</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052549</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030609</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4588,31 +4588,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V5" t="n">
-        <v>840.1393936243026</v>
+        <v>788.4778634388465</v>
       </c>
       <c r="W5" t="n">
-        <v>573.7617370571245</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="X5" t="n">
-        <v>573.7617370571245</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y5" t="n">
-        <v>573.7617370571245</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354.787594686703</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>180.334565405576</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>180.334565405576</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699344</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L6" t="n">
         <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267548</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560895</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742821</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W6" t="n">
-        <v>730.7632304717249</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="X6" t="n">
-        <v>730.7632304717249</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>523.0029317067711</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4713,58 +4713,58 @@
         <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227043</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V7" t="n">
-        <v>1052.618461328661</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W7" t="n">
-        <v>1052.618461328661</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="X7" t="n">
         <v>1052.618461328661</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1659.090843722199</v>
+        <v>1659.090843722211</v>
       </c>
       <c r="C8" t="n">
-        <v>1290.128326781788</v>
+        <v>1290.1283267818</v>
       </c>
       <c r="D8" t="n">
-        <v>931.8626281750373</v>
+        <v>931.8626281750492</v>
       </c>
       <c r="E8" t="n">
-        <v>546.074375576793</v>
+        <v>546.0743755768049</v>
       </c>
       <c r="F8" t="n">
-        <v>135.0884707871855</v>
+        <v>533.3478653511988</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2112552068556</v>
+        <v>117.641643342866</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2112552068556</v>
+        <v>117.641643342866</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467184</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607416</v>
+        <v>442.1757437607444</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045917</v>
+        <v>795.1862829045963</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995231</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209582</v>
+        <v>1655.59168520959</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940594</v>
+        <v>2053.905718940602</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550195</v>
+        <v>2359.356530550205</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661161</v>
+        <v>2540.564622661172</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762133</v>
+        <v>2435.830015762145</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762133</v>
+        <v>2435.830015762145</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762133</v>
+        <v>2435.830015762145</v>
       </c>
       <c r="V8" t="n">
-        <v>2435.830015762133</v>
+        <v>2435.830015762145</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.830015762133</v>
+        <v>2435.830015762145</v>
       </c>
       <c r="X8" t="n">
-        <v>2435.830015762133</v>
+        <v>2435.830015762145</v>
       </c>
       <c r="Y8" t="n">
-        <v>2045.690683786321</v>
+        <v>2045.690683786333</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010864</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199594</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818587081</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532526</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801376</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763258</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>69.87120530446212</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507233</v>
+        <v>238.318882950724</v>
       </c>
       <c r="K9" t="n">
-        <v>506.4581980381341</v>
+        <v>422.9158793018237</v>
       </c>
       <c r="L9" t="n">
-        <v>800.994181471615</v>
+        <v>1056.655162486665</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.060649945916</v>
+        <v>1419.721630960967</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.145052418485</v>
+        <v>1806.806033433537</v>
       </c>
       <c r="O9" t="n">
-        <v>1883.031862405874</v>
+        <v>2138.692843420927</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789035</v>
+        <v>2421.055229888888</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.56276034278</v>
+        <v>2536.272628442634</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251696</v>
+        <v>2424.826280251707</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685345</v>
+        <v>2230.816477685356</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751585</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1767.574213519843</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791641</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586108</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821154</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.0671186274017</v>
+        <v>689.2264432607478</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1309356994948</v>
+        <v>520.2902603328409</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0142962871591</v>
+        <v>370.1736209205052</v>
       </c>
       <c r="E10" t="n">
-        <v>198.101202704766</v>
+        <v>222.2605273381121</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2112552068556</v>
+        <v>75.37057984020171</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380132</v>
+        <v>76.63468308380183</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676565</v>
+        <v>248.2500215676574</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368914</v>
+        <v>523.385004336893</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904027</v>
+        <v>823.8653899904049</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101614</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931093</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1581.490387616502</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="U10" t="n">
-        <v>1611.609820844019</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.925332638132</v>
+        <v>1381.084657271478</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.508162601172</v>
+        <v>1091.667487234518</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.508162601172</v>
+        <v>1091.667487234518</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7155834576414</v>
+        <v>870.8749080909876</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,10 +5029,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5275,19 +5275,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5305,13 +5305,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5360,10 +5360,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245697</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403286</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
         <v>1373.553594266881</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5746,49 +5746,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.5645865368213</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>333.5348535420924</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>333.5348535420924</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>166.3387542569723</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6126,22 +6126,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6253,16 +6253,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6363,19 +6363,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6457,25 +6457,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6612,13 +6612,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6691,22 +6691,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6715,37 +6715,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
         <v>776.1751066403293</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797186</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,16 +6928,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7195,28 +7195,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7311,25 +7311,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,34 +7426,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7548,25 +7548,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7675,25 +7675,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7788,22 +7788,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127162</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446515</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127241</v>
+        <v>97.32166909127275</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>84.38618054172912</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.6295957084433</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>35.68386670539053</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348518</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.22910392194107</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>52.01660326104803</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>68.49784254931343</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>123.7828069546817</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>630991.2213488934</v>
+        <v>630991.2213488935</v>
       </c>
     </row>
     <row r="4">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>615728.997172714</v>
+        <v>615728.9971727141</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>615728.997172714</v>
+        <v>615728.9971727139</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="E2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900062</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900059</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911926</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.007658078</v>
+        <v>390680.0076580811</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606944</v>
+        <v>507909.2320606916</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911393</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.2377910175</v>
+        <v>95270.23779101815</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954693</v>
+        <v>132717.9756954686</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.631541210371732e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251227.3656190198</v>
+        <v>251227.3656190199</v>
       </c>
       <c r="C4" t="n">
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501119</v>
+        <v>140465.2517501111</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179347</v>
+      </c>
+      <c r="F4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11167.03225179347</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26447,19 +26447,19 @@
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.0322517936</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
+        <v>11167.03225179357</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11167.03225179357</v>
+      </c>
+      <c r="P4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11167.0322517936</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426617</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.8675756789</v>
+        <v>92902.86757567913</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-173321.3795501961</v>
+        <v>-173321.3795501954</v>
       </c>
       <c r="C6" t="n">
         <v>506766.6010409973</v>
       </c>
       <c r="D6" t="n">
-        <v>196993.6428804141</v>
+        <v>196993.6428804121</v>
       </c>
       <c r="E6" t="n">
-        <v>186600.426299254</v>
+        <v>186913.0676281781</v>
       </c>
       <c r="F6" t="n">
-        <v>694509.6583599484</v>
+        <v>694822.2996888699</v>
       </c>
       <c r="G6" t="n">
-        <v>694509.6583599489</v>
+        <v>694822.2996888699</v>
       </c>
       <c r="H6" t="n">
-        <v>694509.6583599485</v>
+        <v>694822.2996888696</v>
       </c>
       <c r="I6" t="n">
-        <v>694509.6583599484</v>
+        <v>694822.2996888697</v>
       </c>
       <c r="J6" t="n">
-        <v>625510.5039408345</v>
+        <v>625823.145269756</v>
       </c>
       <c r="K6" t="n">
-        <v>694509.6583599485</v>
+        <v>694822.2996888699</v>
       </c>
       <c r="L6" t="n">
-        <v>599239.420568931</v>
+        <v>599552.0618978515</v>
       </c>
       <c r="M6" t="n">
-        <v>561791.6826644794</v>
+        <v>562104.3239934014</v>
       </c>
       <c r="N6" t="n">
-        <v>694509.6583599484</v>
+        <v>694822.2996888699</v>
       </c>
       <c r="O6" t="n">
-        <v>694509.6583599487</v>
+        <v>694822.2996888696</v>
       </c>
       <c r="P6" t="n">
-        <v>694509.6583599483</v>
+        <v>694822.2996888696</v>
       </c>
     </row>
   </sheetData>
@@ -26715,19 +26715,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>6.436047097567693e-14</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>7.039426512964665e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627821</v>
+        <v>933.7024595627844</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085695</v>
+        <v>640.1406900856979</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,10 +26804,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,16 +26931,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.039426512964665e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933037</v>
+        <v>319.6474457933064</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788919</v>
+        <v>434.2730407788896</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841888</v>
+        <v>376.4268100841918</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139536</v>
+        <v>532.5675980139507</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841888</v>
+        <v>376.4268100841916</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139538</v>
+        <v>532.5675980139508</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841888</v>
+        <v>376.4268100841918</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139536</v>
+        <v>532.5675980139507</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>221.481619570967</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>162.4853592126454</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>122.5240586545478</v>
       </c>
     </row>
     <row r="3">
@@ -27469,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>142.1932586187009</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>229.9246333747438</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>25.71287917570889</v>
       </c>
       <c r="I4" t="n">
-        <v>40.78507827458944</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>101.5590117695015</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>216.93128705826</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>115.1832933522299</v>
+        <v>64.03837846862882</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590681</v>
+        <v>85.52708871590693</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27700,22 +27700,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>163.644203671388</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>177.4358965225436</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>249.9229552332376</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>223.4949672984472</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>394.2768006183614</v>
       </c>
       <c r="G8" t="n">
-        <v>328.5107163637229</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465048</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164522035</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164533403</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>142.3895222246938</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>262.3094583832957</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28101,13 +28101,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-3.166808073631175e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.477821370612594e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.028473857802275e-12</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30462,22 +30462,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,19 +30510,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.350276212680659e-12</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7.039426512964665e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>7.039426512964665e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>7.039426512964665e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7.039426512964665e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>7.039426512964665e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>7.039426512964665e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.200817223434569e-12</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>7.039426512964665e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>7.039426512964665e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>7.039426512964665e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>7.039426512964665e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>7.039426512964665e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885553</v>
+        <v>3.753577726885562</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546669</v>
+        <v>38.44132789546678</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157554</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597253</v>
+        <v>318.5802175972538</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763186</v>
+        <v>477.4691627763198</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354924</v>
+        <v>592.3427171354939</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359934</v>
+        <v>659.095405035995</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525071</v>
+        <v>669.7602577525087</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307888</v>
+        <v>632.4356192307903</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983016</v>
+        <v>539.7691690983029</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542126</v>
+        <v>405.3441667542136</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864748</v>
+        <v>235.7856768864754</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140464</v>
+        <v>85.53465245140484</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944156</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508442</v>
+        <v>0.3002862181508449</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436932</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035138</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026265</v>
+        <v>69.14683309026282</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.7441951079429</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502165</v>
+        <v>324.3030514502173</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571277</v>
+        <v>436.0654741571287</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617162</v>
+        <v>508.8678404617174</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152209</v>
+        <v>522.3360580152222</v>
       </c>
       <c r="O9" t="n">
-        <v>477.835446451908</v>
+        <v>477.8354464519091</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947586</v>
+        <v>383.5050724947595</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463699</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366396</v>
+        <v>37.30405581366405</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133929</v>
+        <v>8.095024154133949</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752558</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840002</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415875</v>
+        <v>50.63422518415887</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772517</v>
+        <v>195.6183185772522</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490121</v>
+        <v>250.3240987490127</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.9316641023129</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462348</v>
+        <v>257.6559590462354</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046252</v>
+        <v>237.9869810046258</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.6389757708734</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.9890713939804</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307408</v>
+        <v>75.70643221307427</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658775</v>
+        <v>29.34274778658782</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942745</v>
+        <v>7.194100917942762</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650326</v>
+        <v>0.09183958618650348</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551096</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>400.5469039565762</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>337.5641188593844</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33672,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>172.760073908902</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966395</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705667</v>
+        <v>137.5343130705675</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731338</v>
+        <v>257.3793117313392</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655052</v>
+        <v>356.5763021655067</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087207</v>
+        <v>428.7491718087223</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559162</v>
+        <v>440.3471941559177</v>
       </c>
       <c r="O8" t="n">
-        <v>402.337407809102</v>
+        <v>402.3374078091035</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430321</v>
+        <v>308.5361733430333</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797631</v>
+        <v>183.0384768797641</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234272</v>
+        <v>20.20013907234329</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816845</v>
+        <v>188.997603781685</v>
       </c>
       <c r="K9" t="n">
-        <v>270.8477930175866</v>
+        <v>186.4616124758583</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772535</v>
+        <v>640.1406900856979</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396979</v>
+        <v>366.7338065396991</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318877</v>
+        <v>390.9943459318889</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074635</v>
+        <v>335.2392020074647</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203656</v>
+        <v>285.2145317858198</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603484</v>
+        <v>116.381210660349</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783593</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873305</v>
+        <v>25.68023017873334</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093282</v>
+        <v>277.9141240093289</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641528</v>
+        <v>303.5155410641535</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254633</v>
+        <v>301.788131425464</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186649</v>
+        <v>262.5721089186655</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357664</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8270281422857</v>
+        <v>54.82702814228604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075059</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>257.9506595121318</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>199.0097390795102</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,13 +37867,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
